--- a/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E7615-A4F9-490B-BE1F-87FA9069D4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36634AF0-56DC-4545-AA42-AB08BA140FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -1279,418 +1279,442 @@
     <t>EA 23.101</t>
   </si>
   <si>
-    <t>matéria escura</t>
-  </si>
-  <si>
-    <t>carvalho</t>
-  </si>
-  <si>
-    <t>ferro</t>
-  </si>
-  <si>
-    <t>granito</t>
-  </si>
-  <si>
-    <t>lama</t>
-  </si>
-  <si>
-    <t>grama</t>
-  </si>
-  <si>
-    <t>grama da floresta</t>
-  </si>
-  <si>
-    <t>grama profunda</t>
-  </si>
-  <si>
-    <t>areia</t>
-  </si>
-  <si>
-    <t>geleia</t>
-  </si>
-  <si>
-    <t>comida crua</t>
-  </si>
-  <si>
-    <t>acácia</t>
-  </si>
-  <si>
-    <t>ouro</t>
-  </si>
-  <si>
-    <t>prata</t>
-  </si>
-  <si>
-    <t>cobre</t>
-  </si>
-  <si>
-    <t>cromita</t>
-  </si>
-  <si>
-    <t>diamante</t>
-  </si>
-  <si>
-    <t>rubínus</t>
-  </si>
-  <si>
-    <t>aço</t>
-  </si>
-  <si>
-    <t>areia de quartzo</t>
-  </si>
-  <si>
-    <t>cristal</t>
-  </si>
-  <si>
-    <t>pele</t>
-  </si>
-  <si>
-    <t>escama de dragão</t>
-  </si>
-  <si>
-    <t>pérola</t>
-  </si>
-  <si>
-    <t>esmeralda</t>
-  </si>
-  <si>
-    <t>cobalto</t>
-  </si>
-  <si>
-    <t>adamantita</t>
-  </si>
-  <si>
-    <t>safira</t>
-  </si>
-  <si>
-    <t>topázio</t>
-  </si>
-  <si>
-    <t>água-marinha</t>
-  </si>
-  <si>
-    <t>ônyx</t>
-  </si>
-  <si>
-    <t>lápis-lazúli</t>
-  </si>
-  <si>
-    <t>turquesa</t>
-  </si>
-  <si>
-    <t>meteorito</t>
-  </si>
-  <si>
-    <t>platina</t>
-  </si>
-  <si>
-    <t>osso</t>
-  </si>
-  <si>
-    <t>bétula</t>
-  </si>
-  <si>
-    <t>papel</t>
-  </si>
-  <si>
-    <t>éter</t>
-  </si>
-  <si>
-    <t>pinheiro</t>
-  </si>
-  <si>
-    <t>solo</t>
-  </si>
-  <si>
-    <t>solo de floresta</t>
-  </si>
-  <si>
-    <t>solo profundo</t>
-  </si>
-  <si>
-    <t>neve</t>
-  </si>
-  <si>
-    <t>calcário</t>
-  </si>
-  <si>
-    <t>mármore</t>
-  </si>
-  <si>
-    <t>basalto</t>
-  </si>
-  <si>
-    <t>ardósia</t>
-  </si>
-  <si>
-    <t>silte</t>
-  </si>
-  <si>
-    <t>diorito</t>
-  </si>
-  <si>
-    <t>obsidiana</t>
-  </si>
-  <si>
-    <t>filito</t>
-  </si>
-  <si>
-    <t>água termal</t>
-  </si>
-  <si>
-    <t>solo leve</t>
-  </si>
-  <si>
-    <t>mogno</t>
-  </si>
-  <si>
-    <t>pau-rosa</t>
-  </si>
-  <si>
-    <t>gelo</t>
-  </si>
-  <si>
-    <t>palha</t>
-  </si>
-  <si>
-    <t>cedro</t>
-  </si>
-  <si>
-    <t>solo místico</t>
-  </si>
-  <si>
-    <t>grama mística</t>
-  </si>
-  <si>
-    <t>água</t>
-  </si>
-  <si>
-    <t>água doce</t>
-  </si>
-  <si>
-    <t>titânio</t>
-  </si>
-  <si>
-    <t>algodão</t>
-  </si>
-  <si>
-    <t>seda</t>
-  </si>
-  <si>
-    <t>escama</t>
-  </si>
-  <si>
-    <t>caxemira</t>
-  </si>
-  <si>
-    <t>tecido espiritual</t>
-  </si>
-  <si>
-    <t>tecido da aurora</t>
-  </si>
-  <si>
-    <t>escama de grifo</t>
-  </si>
-  <si>
-    <t>plástico</t>
-  </si>
-  <si>
-    <t>solo azul</t>
-  </si>
-  <si>
-    <t>lã</t>
-  </si>
-  <si>
-    <t>seda de aranha</t>
-  </si>
-  <si>
-    <t>cinza</t>
-  </si>
-  <si>
-    <t>solo vermelho</t>
-  </si>
-  <si>
-    <t>abeto</t>
-  </si>
-  <si>
-    <t>solo amarelo</t>
-  </si>
-  <si>
-    <t>água do mar</t>
-  </si>
-  <si>
-    <t>água tropical</t>
-  </si>
-  <si>
-    <t>areia branca</t>
-  </si>
-  <si>
-    <t>cânhamo</t>
-  </si>
-  <si>
-    <t>salgueiro</t>
-  </si>
-  <si>
-    <t>flor de cerejeira</t>
-  </si>
-  <si>
-    <t>comida processada</t>
-  </si>
-  <si>
-    <t>carbono</t>
-  </si>
-  <si>
-    <t>álamo</t>
-  </si>
-  <si>
-    <t>areia do mar</t>
-  </si>
-  <si>
-    <t>bambu</t>
-  </si>
-  <si>
-    <t>ametista</t>
-  </si>
-  <si>
-    <t>madeira feérica</t>
-  </si>
-  <si>
-    <t>madeira de coral</t>
-  </si>
-  <si>
-    <t>quartzo rosa</t>
-  </si>
-  <si>
-    <t>floresta, madeiroso</t>
-  </si>
-  <si>
-    <t>massa</t>
-  </si>
-  <si>
-    <t>rígido, pedra</t>
-  </si>
-  <si>
-    <t>prática</t>
-  </si>
-  <si>
-    <t>brinquedo</t>
-  </si>
-  <si>
-    <t>tremendo</t>
-  </si>
-  <si>
-    <t>comestível</t>
-  </si>
-  <si>
-    <t>dourado</t>
-  </si>
-  <si>
-    <t>medo de morte</t>
-  </si>
-  <si>
-    <t>relâmpago</t>
-  </si>
-  <si>
-    <t>nobre</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>puro</t>
-  </si>
-  <si>
-    <t>eterno</t>
-  </si>
-  <si>
-    <t>carmim</t>
-  </si>
-  <si>
-    <t>histórico</t>
-  </si>
-  <si>
-    <t>oceano</t>
-  </si>
-  <si>
-    <t>cintilante, vidro</t>
-  </si>
-  <si>
-    <t>luminescente</t>
-  </si>
-  <si>
-    <t>misterioso</t>
-  </si>
-  <si>
-    <t>matador de dragões</t>
-  </si>
-  <si>
-    <t>brilhante</t>
-  </si>
-  <si>
-    <t>milagre</t>
-  </si>
-  <si>
-    <t>abalo terrestre</t>
-  </si>
-  <si>
-    <t>imortal</t>
-  </si>
-  <si>
-    <t>bobo</t>
-  </si>
-  <si>
-    <t>matador de deuses</t>
-  </si>
-  <si>
-    <t>trabalho na fazenda</t>
-  </si>
-  <si>
-    <t>antigo</t>
-  </si>
-  <si>
-    <t>intacta</t>
-  </si>
-  <si>
-    <t>leve</t>
-  </si>
-  <si>
-    <t>belo</t>
-  </si>
-  <si>
-    <t>ira</t>
-  </si>
-  <si>
-    <t>quente</t>
-  </si>
-  <si>
-    <t>exótico</t>
-  </si>
-  <si>
-    <t>de outro mundo</t>
-  </si>
-  <si>
-    <t>crepúsculo</t>
-  </si>
-  <si>
-    <t>caído</t>
-  </si>
-  <si>
-    <t>transparente</t>
-  </si>
-  <si>
-    <t>suave</t>
-  </si>
-  <si>
-    <t>emaranhado</t>
-  </si>
-  <si>
-    <t>resistente</t>
-  </si>
-  <si>
-    <t>encantadora</t>
-  </si>
-  <si>
-    <t>adorável</t>
+    <t>Matéria Escura</t>
+  </si>
+  <si>
+    <t>Carvalho</t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>Granito</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Grama</t>
+  </si>
+  <si>
+    <t>Grama da Floresta</t>
+  </si>
+  <si>
+    <t>Grama Profunda</t>
+  </si>
+  <si>
+    <t>Areia</t>
+  </si>
+  <si>
+    <t>Geleia</t>
+  </si>
+  <si>
+    <t>Comida Crua</t>
+  </si>
+  <si>
+    <t>Acácia</t>
+  </si>
+  <si>
+    <t>Ouro</t>
+  </si>
+  <si>
+    <t>Prata</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Mica</t>
+  </si>
+  <si>
+    <t>Cromita</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>Rubínus</t>
+  </si>
+  <si>
+    <t>Aço</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Areia de Quartzo</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>Pele</t>
+  </si>
+  <si>
+    <t>Escama de Dragão</t>
+  </si>
+  <si>
+    <t>Pérola</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Cobalto</t>
+  </si>
+  <si>
+    <t>Adamantita</t>
+  </si>
+  <si>
+    <t>Safira</t>
+  </si>
+  <si>
+    <t>Topázio</t>
+  </si>
+  <si>
+    <t>Água-Marinha</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Ônyx</t>
+  </si>
+  <si>
+    <t>Lápis-Lazúli</t>
+  </si>
+  <si>
+    <t>Turquesa</t>
+  </si>
+  <si>
+    <t>Meteorito</t>
+  </si>
+  <si>
+    <t>Platina</t>
+  </si>
+  <si>
+    <t>Osso</t>
+  </si>
+  <si>
+    <t>Bétula</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Éter</t>
+  </si>
+  <si>
+    <t>Pinheiro</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Solo de Floresta</t>
+  </si>
+  <si>
+    <t>Solo Profundo</t>
+  </si>
+  <si>
+    <t>Neve</t>
+  </si>
+  <si>
+    <t>Calcário</t>
+  </si>
+  <si>
+    <t>Mármore</t>
+  </si>
+  <si>
+    <t>Basalto</t>
+  </si>
+  <si>
+    <t>Ardósia</t>
+  </si>
+  <si>
+    <t>Silte</t>
+  </si>
+  <si>
+    <t>Diorito</t>
+  </si>
+  <si>
+    <t>Obsidiana</t>
+  </si>
+  <si>
+    <t>Filito</t>
+  </si>
+  <si>
+    <t>Água Termal</t>
+  </si>
+  <si>
+    <t>Solo Leve</t>
+  </si>
+  <si>
+    <t>Mogno</t>
+  </si>
+  <si>
+    <t>Pau-Rosa</t>
+  </si>
+  <si>
+    <t>Gelo</t>
+  </si>
+  <si>
+    <t>Palha</t>
+  </si>
+  <si>
+    <t>Cedro</t>
+  </si>
+  <si>
+    <t>Solo Místico</t>
+  </si>
+  <si>
+    <t>Grama Mística</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Água Doce</t>
+  </si>
+  <si>
+    <t>Mithril</t>
+  </si>
+  <si>
+    <t>Titânio</t>
+  </si>
+  <si>
+    <t>Algodão</t>
+  </si>
+  <si>
+    <t>Seda</t>
+  </si>
+  <si>
+    <t>Escama</t>
+  </si>
+  <si>
+    <t>Caxemira</t>
+  </si>
+  <si>
+    <t>Zylon</t>
+  </si>
+  <si>
+    <t>Tecido Espiritual</t>
+  </si>
+  <si>
+    <t>Tecido da Aurora</t>
+  </si>
+  <si>
+    <t>Escama de Grifo</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Solo Azul</t>
+  </si>
+  <si>
+    <t>Lã</t>
+  </si>
+  <si>
+    <t>Seda de Aranha</t>
+  </si>
+  <si>
+    <t>Cinza</t>
+  </si>
+  <si>
+    <t>Solo Vermelho</t>
+  </si>
+  <si>
+    <t>Abeto</t>
+  </si>
+  <si>
+    <t>Palulu</t>
+  </si>
+  <si>
+    <t>Solo Amarelo</t>
+  </si>
+  <si>
+    <t>Água do Mar</t>
+  </si>
+  <si>
+    <t>Água Tropical</t>
+  </si>
+  <si>
+    <t>Areia Branca</t>
+  </si>
+  <si>
+    <t>Cânhamo</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>Flor de Cerejeira</t>
+  </si>
+  <si>
+    <t>Comida Processada</t>
+  </si>
+  <si>
+    <t>Carbono</t>
+  </si>
+  <si>
+    <t>Álamo</t>
+  </si>
+  <si>
+    <t>Areia do Mar</t>
+  </si>
+  <si>
+    <t>Bambu</t>
+  </si>
+  <si>
+    <t>Ametista</t>
+  </si>
+  <si>
+    <t>Madeira Feérica</t>
+  </si>
+  <si>
+    <t>Madeira de Coral</t>
+  </si>
+  <si>
+    <t>Quartzo Rosa</t>
+  </si>
+  <si>
+    <t>Massa</t>
+  </si>
+  <si>
+    <t>Floresta, Madeira</t>
+  </si>
+  <si>
+    <t>Rígido, Pedra</t>
+  </si>
+  <si>
+    <t>Prática</t>
+  </si>
+  <si>
+    <t>Brinquedo</t>
+  </si>
+  <si>
+    <t>Tremor</t>
+  </si>
+  <si>
+    <t>Comestível</t>
+  </si>
+  <si>
+    <t>Dourado</t>
+  </si>
+  <si>
+    <t>Medo da Morte</t>
+  </si>
+  <si>
+    <t>Eelâmpago</t>
+  </si>
+  <si>
+    <t>Nobra</t>
+  </si>
+  <si>
+    <t>Efêmero</t>
+  </si>
+  <si>
+    <t>Puro</t>
+  </si>
+  <si>
+    <t>Eterno</t>
+  </si>
+  <si>
+    <t>Carmesim</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Oceano</t>
+  </si>
+  <si>
+    <t>Cintilante, Vidro</t>
+  </si>
+  <si>
+    <t>Luminescente</t>
+  </si>
+  <si>
+    <t>Misterioso</t>
+  </si>
+  <si>
+    <t>Matador de Dragões</t>
+  </si>
+  <si>
+    <t>Brilhante</t>
+  </si>
+  <si>
+    <t>Milagre</t>
+  </si>
+  <si>
+    <t>Terremoto</t>
+  </si>
+  <si>
+    <t>Imortal</t>
+  </si>
+  <si>
+    <t>Bobo</t>
+  </si>
+  <si>
+    <t>Matador de Deuses</t>
+  </si>
+  <si>
+    <t>Trabalho na Fazenda</t>
+  </si>
+  <si>
+    <t>Antigo</t>
+  </si>
+  <si>
+    <t>Intacto</t>
+  </si>
+  <si>
+    <t>Leve</t>
+  </si>
+  <si>
+    <t>Belo</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Quente</t>
+  </si>
+  <si>
+    <t>Exótico</t>
+  </si>
+  <si>
+    <t>De Outro Mundo</t>
+  </si>
+  <si>
+    <t>Crepúsculo</t>
+  </si>
+  <si>
+    <t>Caído</t>
+  </si>
+  <si>
+    <t>Transparente</t>
+  </si>
+  <si>
+    <t>Suave</t>
+  </si>
+  <si>
+    <t>Emaranhado</t>
+  </si>
+  <si>
+    <t>Resistente</t>
+  </si>
+  <si>
+    <t>Encantadora</t>
+  </si>
+  <si>
+    <t>Adorável</t>
   </si>
 </sst>
 </file>
@@ -2071,15 +2095,16 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,7 +2167,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -2168,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -2194,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -2237,7 +2262,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -2297,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -2323,7 +2348,7 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
@@ -2349,7 +2374,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2392,7 +2417,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -2418,7 +2443,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
@@ -2444,7 +2469,7 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2461,7 +2486,7 @@
         <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
@@ -2470,7 +2495,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -2487,7 +2512,7 @@
         <v>408</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
@@ -2496,7 +2521,7 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G19" t="s">
         <v>81</v>
@@ -2513,7 +2538,7 @@
         <v>408</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -2522,7 +2547,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -2539,7 +2564,7 @@
         <v>410</v>
       </c>
       <c r="C21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -2548,7 +2573,7 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -2565,7 +2590,7 @@
         <v>411</v>
       </c>
       <c r="C22" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -2574,7 +2599,7 @@
         <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -2591,7 +2616,7 @@
         <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
@@ -2600,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G23" t="s">
         <v>101</v>
@@ -2617,7 +2642,7 @@
         <v>408</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
         <v>104</v>
@@ -2626,7 +2651,7 @@
         <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G24" t="s">
         <v>106</v>
@@ -2643,7 +2668,7 @@
         <v>409</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
@@ -2652,7 +2677,7 @@
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G25" t="s">
         <v>111</v>
@@ -2669,7 +2694,7 @@
         <v>408</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -2678,7 +2703,7 @@
         <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G26" t="s">
         <v>116</v>
@@ -2695,7 +2720,7 @@
         <v>408</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -2704,7 +2729,7 @@
         <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G27" t="s">
         <v>121</v>
@@ -2721,7 +2746,7 @@
         <v>408</v>
       </c>
       <c r="C28" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
         <v>124</v>
@@ -2730,7 +2755,7 @@
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
@@ -2747,7 +2772,7 @@
         <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D29" t="s">
         <v>129</v>
@@ -2756,7 +2781,7 @@
         <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G29" t="s">
         <v>131</v>
@@ -2773,7 +2798,7 @@
         <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
@@ -2782,7 +2807,7 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G30" t="s">
         <v>136</v>
@@ -2799,7 +2824,7 @@
         <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
         <v>139</v>
@@ -2816,7 +2841,7 @@
         <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
@@ -2825,7 +2850,7 @@
         <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G32" t="s">
         <v>144</v>
@@ -2842,7 +2867,7 @@
         <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -2859,7 +2884,7 @@
         <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -2876,7 +2901,7 @@
         <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -2893,7 +2918,7 @@
         <v>408</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>451</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
@@ -2910,7 +2935,7 @@
         <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="D37" t="s">
         <v>159</v>
@@ -2927,7 +2952,7 @@
         <v>408</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D38" t="s">
         <v>162</v>
@@ -2944,7 +2969,7 @@
         <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D39" t="s">
         <v>165</v>
@@ -2961,7 +2986,7 @@
         <v>408</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -2978,7 +3003,7 @@
         <v>408</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D41" t="s">
         <v>171</v>
@@ -2995,7 +3020,7 @@
         <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D42" t="s">
         <v>174</v>
@@ -3004,7 +3029,7 @@
         <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G42" t="s">
         <v>176</v>
@@ -3021,7 +3046,7 @@
         <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
@@ -3030,7 +3055,7 @@
         <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G43" t="s">
         <v>181</v>
@@ -3047,7 +3072,7 @@
         <v>409</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D44" t="s">
         <v>184</v>
@@ -3064,7 +3089,7 @@
         <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D45" t="s">
         <v>187</v>
@@ -3073,7 +3098,7 @@
         <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G45" t="s">
         <v>189</v>
@@ -3090,7 +3115,7 @@
         <v>408</v>
       </c>
       <c r="C46" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D46" t="s">
         <v>192</v>
@@ -3099,7 +3124,7 @@
         <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G46" t="s">
         <v>194</v>
@@ -3116,7 +3141,7 @@
         <v>409</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D47" t="s">
         <v>197</v>
@@ -3133,7 +3158,7 @@
         <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D48" t="s">
         <v>200</v>
@@ -3150,7 +3175,7 @@
         <v>408</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D49" t="s">
         <v>203</v>
@@ -3167,7 +3192,7 @@
         <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D50" t="s">
         <v>206</v>
@@ -3184,7 +3209,7 @@
         <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D51" t="s">
         <v>209</v>
@@ -3201,7 +3226,7 @@
         <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D52" t="s">
         <v>212</v>
@@ -3218,7 +3243,7 @@
         <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D53" t="s">
         <v>215</v>
@@ -3235,7 +3260,7 @@
         <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D54" t="s">
         <v>218</v>
@@ -3252,7 +3277,7 @@
         <v>408</v>
       </c>
       <c r="C55" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D55" t="s">
         <v>221</v>
@@ -3269,7 +3294,7 @@
         <v>408</v>
       </c>
       <c r="C56" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D56" t="s">
         <v>224</v>
@@ -3286,7 +3311,7 @@
         <v>408</v>
       </c>
       <c r="C57" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D57" t="s">
         <v>227</v>
@@ -3303,7 +3328,7 @@
         <v>409</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D58" t="s">
         <v>230</v>
@@ -3312,7 +3337,7 @@
         <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G58" t="s">
         <v>232</v>
@@ -3329,7 +3354,7 @@
         <v>408</v>
       </c>
       <c r="C59" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D59" t="s">
         <v>235</v>
@@ -3346,7 +3371,7 @@
         <v>408</v>
       </c>
       <c r="C60" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D60" t="s">
         <v>238</v>
@@ -3363,7 +3388,7 @@
         <v>408</v>
       </c>
       <c r="C61" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
         <v>241</v>
@@ -3380,7 +3405,7 @@
         <v>409</v>
       </c>
       <c r="C62" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D62" t="s">
         <v>244</v>
@@ -3397,7 +3422,7 @@
         <v>409</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D63" t="s">
         <v>247</v>
@@ -3414,7 +3439,7 @@
         <v>408</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D64" t="s">
         <v>250</v>
@@ -3431,7 +3456,7 @@
         <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D65" t="s">
         <v>253</v>
@@ -3440,7 +3465,7 @@
         <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="G65" t="s">
         <v>255</v>
@@ -3457,7 +3482,7 @@
         <v>409</v>
       </c>
       <c r="C66" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
         <v>258</v>
@@ -3474,7 +3499,7 @@
         <v>408</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D67" t="s">
         <v>261</v>
@@ -3491,7 +3516,7 @@
         <v>408</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D68" t="s">
         <v>264</v>
@@ -3508,7 +3533,7 @@
         <v>408</v>
       </c>
       <c r="C69" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D69" t="s">
         <v>267</v>
@@ -3525,7 +3550,7 @@
         <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
         <v>270</v>
@@ -3542,7 +3567,7 @@
         <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>486</v>
       </c>
       <c r="D71" t="s">
         <v>273</v>
@@ -3551,7 +3576,7 @@
         <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G71" t="s">
         <v>275</v>
@@ -3568,7 +3593,7 @@
         <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D72" t="s">
         <v>278</v>
@@ -3577,7 +3602,7 @@
         <v>279</v>
       </c>
       <c r="F72" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G72" t="s">
         <v>280</v>
@@ -3594,7 +3619,7 @@
         <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
         <v>283</v>
@@ -3603,7 +3628,7 @@
         <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G73" t="s">
         <v>285</v>
@@ -3620,7 +3645,7 @@
         <v>408</v>
       </c>
       <c r="C74" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
         <v>288</v>
@@ -3629,7 +3654,7 @@
         <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="G74" t="s">
         <v>290</v>
@@ -3646,7 +3671,7 @@
         <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D75" t="s">
         <v>293</v>
@@ -3655,7 +3680,7 @@
         <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G75" t="s">
         <v>295</v>
@@ -3672,7 +3697,7 @@
         <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s">
         <v>298</v>
@@ -3681,7 +3706,7 @@
         <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G76" t="s">
         <v>300</v>
@@ -3698,7 +3723,7 @@
         <v>408</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>492</v>
       </c>
       <c r="D77" t="s">
         <v>303</v>
@@ -3707,7 +3732,7 @@
         <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="G77" t="s">
         <v>305</v>
@@ -3724,7 +3749,7 @@
         <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D78" t="s">
         <v>308</v>
@@ -3733,7 +3758,7 @@
         <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G78" t="s">
         <v>310</v>
@@ -3750,7 +3775,7 @@
         <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D79" t="s">
         <v>313</v>
@@ -3759,7 +3784,7 @@
         <v>314</v>
       </c>
       <c r="F79" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G79" t="s">
         <v>315</v>
@@ -3776,7 +3801,7 @@
         <v>408</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D80" t="s">
         <v>318</v>
@@ -3785,7 +3810,7 @@
         <v>319</v>
       </c>
       <c r="F80" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G80" t="s">
         <v>320</v>
@@ -3802,7 +3827,7 @@
         <v>408</v>
       </c>
       <c r="C81" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
         <v>323</v>
@@ -3811,7 +3836,7 @@
         <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="G81" t="s">
         <v>325</v>
@@ -3828,7 +3853,7 @@
         <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D82" t="s">
         <v>328</v>
@@ -3845,7 +3870,7 @@
         <v>409</v>
       </c>
       <c r="C83" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D83" t="s">
         <v>331</v>
@@ -3854,7 +3879,7 @@
         <v>332</v>
       </c>
       <c r="F83" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G83" t="s">
         <v>333</v>
@@ -3871,7 +3896,7 @@
         <v>409</v>
       </c>
       <c r="C84" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D84" t="s">
         <v>336</v>
@@ -3880,7 +3905,7 @@
         <v>337</v>
       </c>
       <c r="F84" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G84" t="s">
         <v>338</v>
@@ -3897,7 +3922,7 @@
         <v>408</v>
       </c>
       <c r="C85" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D85" t="s">
         <v>341</v>
@@ -3914,7 +3939,7 @@
         <v>408</v>
       </c>
       <c r="C86" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D86" t="s">
         <v>344</v>
@@ -3931,7 +3956,7 @@
         <v>409</v>
       </c>
       <c r="C87" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
@@ -3948,7 +3973,7 @@
         <v>412</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>503</v>
       </c>
       <c r="D88" t="s">
         <v>350</v>
@@ -3965,7 +3990,7 @@
         <v>408</v>
       </c>
       <c r="C89" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D89" t="s">
         <v>241</v>
@@ -3982,7 +4007,7 @@
         <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D90" t="s">
         <v>355</v>
@@ -3999,7 +4024,7 @@
         <v>408</v>
       </c>
       <c r="C91" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D91" t="s">
         <v>358</v>
@@ -4016,7 +4041,7 @@
         <v>412</v>
       </c>
       <c r="C92" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D92" t="s">
         <v>361</v>
@@ -4033,7 +4058,7 @@
         <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
         <v>364</v>
@@ -4050,7 +4075,7 @@
         <v>409</v>
       </c>
       <c r="C94" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D94" t="s">
         <v>367</v>
@@ -4059,7 +4084,7 @@
         <v>368</v>
       </c>
       <c r="F94" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="G94" t="s">
         <v>369</v>
@@ -4076,7 +4101,7 @@
         <v>409</v>
       </c>
       <c r="C95" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D95" t="s">
         <v>372</v>
@@ -4093,7 +4118,7 @@
         <v>409</v>
       </c>
       <c r="C96" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D96" t="s">
         <v>375</v>
@@ -4110,7 +4135,7 @@
         <v>409</v>
       </c>
       <c r="C97" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D97" t="s">
         <v>378</v>
@@ -4127,7 +4152,7 @@
         <v>409</v>
       </c>
       <c r="C98" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D98" t="s">
         <v>381</v>
@@ -4144,7 +4169,7 @@
         <v>409</v>
       </c>
       <c r="C99" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D99" t="s">
         <v>384</v>
@@ -4161,7 +4186,7 @@
         <v>413</v>
       </c>
       <c r="C100" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D100" t="s">
         <v>387</v>
@@ -4178,7 +4203,7 @@
         <v>414</v>
       </c>
       <c r="C101" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D101" t="s">
         <v>390</v>
@@ -4195,7 +4220,7 @@
         <v>415</v>
       </c>
       <c r="C102" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D102" t="s">
         <v>393</v>
@@ -4204,7 +4229,7 @@
         <v>394</v>
       </c>
       <c r="F102" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G102" t="s">
         <v>395</v>
@@ -4221,7 +4246,7 @@
         <v>416</v>
       </c>
       <c r="C103" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D103" t="s">
         <v>398</v>
@@ -4238,7 +4263,7 @@
         <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s">
         <v>401</v>
@@ -4255,7 +4280,7 @@
         <v>417</v>
       </c>
       <c r="C105" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D105" t="s">
         <v>404</v>
@@ -4264,7 +4289,7 @@
         <v>405</v>
       </c>
       <c r="F105" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G105" t="s">
         <v>406</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36634AF0-56DC-4545-AA42-AB08BA140FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4703E-9F58-4433-ACAD-F8A9DF04805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Material!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1279,312 +1292,6 @@
     <t>EA 23.101</t>
   </si>
   <si>
-    <t>Matéria Escura</t>
-  </si>
-  <si>
-    <t>Carvalho</t>
-  </si>
-  <si>
-    <t>Ferro</t>
-  </si>
-  <si>
-    <t>Granito</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Grama</t>
-  </si>
-  <si>
-    <t>Grama da Floresta</t>
-  </si>
-  <si>
-    <t>Grama Profunda</t>
-  </si>
-  <si>
-    <t>Areia</t>
-  </si>
-  <si>
-    <t>Geleia</t>
-  </si>
-  <si>
-    <t>Comida Crua</t>
-  </si>
-  <si>
-    <t>Acácia</t>
-  </si>
-  <si>
-    <t>Ouro</t>
-  </si>
-  <si>
-    <t>Prata</t>
-  </si>
-  <si>
-    <t>Cobre</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Mica</t>
-  </si>
-  <si>
-    <t>Cromita</t>
-  </si>
-  <si>
-    <t>Diamante</t>
-  </si>
-  <si>
-    <t>Rubínus</t>
-  </si>
-  <si>
-    <t>Aço</t>
-  </si>
-  <si>
-    <t>Coral</t>
-  </si>
-  <si>
-    <t>Areia de Quartzo</t>
-  </si>
-  <si>
-    <t>Cristal</t>
-  </si>
-  <si>
-    <t>Pele</t>
-  </si>
-  <si>
-    <t>Escama de Dragão</t>
-  </si>
-  <si>
-    <t>Pérola</t>
-  </si>
-  <si>
-    <t>Esmeralda</t>
-  </si>
-  <si>
-    <t>Cobalto</t>
-  </si>
-  <si>
-    <t>Adamantita</t>
-  </si>
-  <si>
-    <t>Safira</t>
-  </si>
-  <si>
-    <t>Topázio</t>
-  </si>
-  <si>
-    <t>Água-Marinha</t>
-  </si>
-  <si>
-    <t>Opal</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>Ônyx</t>
-  </si>
-  <si>
-    <t>Lápis-Lazúli</t>
-  </si>
-  <si>
-    <t>Turquesa</t>
-  </si>
-  <si>
-    <t>Meteorito</t>
-  </si>
-  <si>
-    <t>Platina</t>
-  </si>
-  <si>
-    <t>Osso</t>
-  </si>
-  <si>
-    <t>Bétula</t>
-  </si>
-  <si>
-    <t>Papel</t>
-  </si>
-  <si>
-    <t>Éter</t>
-  </si>
-  <si>
-    <t>Pinheiro</t>
-  </si>
-  <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>Solo de Floresta</t>
-  </si>
-  <si>
-    <t>Solo Profundo</t>
-  </si>
-  <si>
-    <t>Neve</t>
-  </si>
-  <si>
-    <t>Calcário</t>
-  </si>
-  <si>
-    <t>Mármore</t>
-  </si>
-  <si>
-    <t>Basalto</t>
-  </si>
-  <si>
-    <t>Ardósia</t>
-  </si>
-  <si>
-    <t>Silte</t>
-  </si>
-  <si>
-    <t>Diorito</t>
-  </si>
-  <si>
-    <t>Obsidiana</t>
-  </si>
-  <si>
-    <t>Filito</t>
-  </si>
-  <si>
-    <t>Água Termal</t>
-  </si>
-  <si>
-    <t>Solo Leve</t>
-  </si>
-  <si>
-    <t>Mogno</t>
-  </si>
-  <si>
-    <t>Pau-Rosa</t>
-  </si>
-  <si>
-    <t>Gelo</t>
-  </si>
-  <si>
-    <t>Palha</t>
-  </si>
-  <si>
-    <t>Cedro</t>
-  </si>
-  <si>
-    <t>Solo Místico</t>
-  </si>
-  <si>
-    <t>Grama Mística</t>
-  </si>
-  <si>
-    <t>Água</t>
-  </si>
-  <si>
-    <t>Água Doce</t>
-  </si>
-  <si>
-    <t>Mithril</t>
-  </si>
-  <si>
-    <t>Titânio</t>
-  </si>
-  <si>
-    <t>Algodão</t>
-  </si>
-  <si>
-    <t>Seda</t>
-  </si>
-  <si>
-    <t>Escama</t>
-  </si>
-  <si>
-    <t>Caxemira</t>
-  </si>
-  <si>
-    <t>Zylon</t>
-  </si>
-  <si>
-    <t>Tecido Espiritual</t>
-  </si>
-  <si>
-    <t>Tecido da Aurora</t>
-  </si>
-  <si>
-    <t>Escama de Grifo</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Solo Azul</t>
-  </si>
-  <si>
-    <t>Lã</t>
-  </si>
-  <si>
-    <t>Seda de Aranha</t>
-  </si>
-  <si>
-    <t>Cinza</t>
-  </si>
-  <si>
-    <t>Solo Vermelho</t>
-  </si>
-  <si>
-    <t>Abeto</t>
-  </si>
-  <si>
-    <t>Palulu</t>
-  </si>
-  <si>
-    <t>Solo Amarelo</t>
-  </si>
-  <si>
-    <t>Água do Mar</t>
-  </si>
-  <si>
-    <t>Água Tropical</t>
-  </si>
-  <si>
-    <t>Areia Branca</t>
-  </si>
-  <si>
-    <t>Cânhamo</t>
-  </si>
-  <si>
-    <t>Salgueiro</t>
-  </si>
-  <si>
-    <t>Flor de Cerejeira</t>
-  </si>
-  <si>
-    <t>Comida Processada</t>
-  </si>
-  <si>
-    <t>Carbono</t>
-  </si>
-  <si>
-    <t>Álamo</t>
-  </si>
-  <si>
-    <t>Areia do Mar</t>
-  </si>
-  <si>
-    <t>Bambu</t>
-  </si>
-  <si>
-    <t>Ametista</t>
-  </si>
-  <si>
-    <t>Madeira Feérica</t>
-  </si>
-  <si>
-    <t>Madeira de Coral</t>
-  </si>
-  <si>
-    <t>Quartzo Rosa</t>
-  </si>
-  <si>
     <t>Massa</t>
   </si>
   <si>
@@ -1612,9 +1319,6 @@
     <t>Medo da Morte</t>
   </si>
   <si>
-    <t>Eelâmpago</t>
-  </si>
-  <si>
     <t>Nobra</t>
   </si>
   <si>
@@ -1715,6 +1419,315 @@
   </si>
   <si>
     <t>Adorável</t>
+  </si>
+  <si>
+    <t>Relâmpago</t>
+  </si>
+  <si>
+    <t>「Abeto」</t>
+  </si>
+  <si>
+    <t>「Acácia」</t>
+  </si>
+  <si>
+    <t>「Aço」</t>
+  </si>
+  <si>
+    <t>「Água」</t>
+  </si>
+  <si>
+    <t>「Água do Mar」</t>
+  </si>
+  <si>
+    <t>「Água Doce」</t>
+  </si>
+  <si>
+    <t>「Água Termal」</t>
+  </si>
+  <si>
+    <t>「Água Tropical」</t>
+  </si>
+  <si>
+    <t>「Água-Marinha」</t>
+  </si>
+  <si>
+    <t>「Álamo」</t>
+  </si>
+  <si>
+    <t>「Algodão」</t>
+  </si>
+  <si>
+    <t>「Ametista」</t>
+  </si>
+  <si>
+    <t>「Ardósia」</t>
+  </si>
+  <si>
+    <t>「Areia」</t>
+  </si>
+  <si>
+    <t>「Areia Branca」</t>
+  </si>
+  <si>
+    <t>「Areia de Quartzo」</t>
+  </si>
+  <si>
+    <t>「Areia do Mar」</t>
+  </si>
+  <si>
+    <t>「Bambu」</t>
+  </si>
+  <si>
+    <t>「Basalto」</t>
+  </si>
+  <si>
+    <t>「Bétula」</t>
+  </si>
+  <si>
+    <t>「Bronze」</t>
+  </si>
+  <si>
+    <t>「Calcário」</t>
+  </si>
+  <si>
+    <t>「Cânhamo」</t>
+  </si>
+  <si>
+    <t>「Carbono」</t>
+  </si>
+  <si>
+    <t>「Caxemira」</t>
+  </si>
+  <si>
+    <t>「Cedro」</t>
+  </si>
+  <si>
+    <t>「Cinza」</t>
+  </si>
+  <si>
+    <t>「Cobalto」</t>
+  </si>
+  <si>
+    <t>「Cobre」</t>
+  </si>
+  <si>
+    <t>「Comida Crua」</t>
+  </si>
+  <si>
+    <t>「Comida Processada」</t>
+  </si>
+  <si>
+    <t>「Coral」</t>
+  </si>
+  <si>
+    <t>「Cristal」</t>
+  </si>
+  <si>
+    <t>「Cromita」</t>
+  </si>
+  <si>
+    <t>「Diamante」</t>
+  </si>
+  <si>
+    <t>「Diorito」</t>
+  </si>
+  <si>
+    <t>「Escama」</t>
+  </si>
+  <si>
+    <t>「Escama de Dragão」</t>
+  </si>
+  <si>
+    <t>「Escama de Grifo」</t>
+  </si>
+  <si>
+    <t>「Esmeralda」</t>
+  </si>
+  <si>
+    <t>「Éter」</t>
+  </si>
+  <si>
+    <t>「Ferro」</t>
+  </si>
+  <si>
+    <t>「Filito」</t>
+  </si>
+  <si>
+    <t>「Flor de Cerejeira」</t>
+  </si>
+  <si>
+    <t>「Geleia」</t>
+  </si>
+  <si>
+    <t>「Gelo」</t>
+  </si>
+  <si>
+    <t>「Grama」</t>
+  </si>
+  <si>
+    <t>「Grama da Floresta」</t>
+  </si>
+  <si>
+    <t>「Grama Mística」</t>
+  </si>
+  <si>
+    <t>「Grama Profunda」</t>
+  </si>
+  <si>
+    <t>「Granito」</t>
+  </si>
+  <si>
+    <t>「Jade」</t>
+  </si>
+  <si>
+    <t>「Lã」</t>
+  </si>
+  <si>
+    <t>「Lama」</t>
+  </si>
+  <si>
+    <t>「Lápis-Lazúli」</t>
+  </si>
+  <si>
+    <t>「Madeira de Coral」</t>
+  </si>
+  <si>
+    <t>「Madeira Feérica」</t>
+  </si>
+  <si>
+    <t>「Mármore」</t>
+  </si>
+  <si>
+    <t>「Matéria Escura」</t>
+  </si>
+  <si>
+    <t>「Meteorito」</t>
+  </si>
+  <si>
+    <t>「Mica」</t>
+  </si>
+  <si>
+    <t>「Mithril」</t>
+  </si>
+  <si>
+    <t>「Mogno」</t>
+  </si>
+  <si>
+    <t>「Neve」</t>
+  </si>
+  <si>
+    <t>「Obsidiana」</t>
+  </si>
+  <si>
+    <t>「Ônyx」</t>
+  </si>
+  <si>
+    <t>「Opal」</t>
+  </si>
+  <si>
+    <t>「Osso」</t>
+  </si>
+  <si>
+    <t>「Ouro」</t>
+  </si>
+  <si>
+    <t>「Palha」</t>
+  </si>
+  <si>
+    <t>「Palulu」</t>
+  </si>
+  <si>
+    <t>「Papel」</t>
+  </si>
+  <si>
+    <t>「Pau-Rosa」</t>
+  </si>
+  <si>
+    <t>「Pele」</t>
+  </si>
+  <si>
+    <t>「Pérola」</t>
+  </si>
+  <si>
+    <t>「Pinheiro」</t>
+  </si>
+  <si>
+    <t>「Plástico」</t>
+  </si>
+  <si>
+    <t>「Platina」</t>
+  </si>
+  <si>
+    <t>「Prata」</t>
+  </si>
+  <si>
+    <t>「Quartzo Rosa」</t>
+  </si>
+  <si>
+    <t>「Rubínus」</t>
+  </si>
+  <si>
+    <t>「Safira」</t>
+  </si>
+  <si>
+    <t>「Salgueiro」</t>
+  </si>
+  <si>
+    <t>「Seda」</t>
+  </si>
+  <si>
+    <t>「Seda de Aranha」</t>
+  </si>
+  <si>
+    <t>「Silte」</t>
+  </si>
+  <si>
+    <t>「Solo」</t>
+  </si>
+  <si>
+    <t>「Solo Amarelo」</t>
+  </si>
+  <si>
+    <t>「Solo Azul」</t>
+  </si>
+  <si>
+    <t>「Solo de Floresta」</t>
+  </si>
+  <si>
+    <t>「Solo Leve」</t>
+  </si>
+  <si>
+    <t>「Solo Místico」</t>
+  </si>
+  <si>
+    <t>「Solo Profundo」</t>
+  </si>
+  <si>
+    <t>「Solo Vermelho」</t>
+  </si>
+  <si>
+    <t>「Tecido da Aurora」</t>
+  </si>
+  <si>
+    <t>「Tecido Espiritual」</t>
+  </si>
+  <si>
+    <t>「Titânio」</t>
+  </si>
+  <si>
+    <t>「Topázio」</t>
+  </si>
+  <si>
+    <t>「Turquesa」</t>
+  </si>
+  <si>
+    <t>「Zylon」</t>
+  </si>
+  <si>
+    <t>「Adamantite」</t>
+  </si>
+  <si>
+    <t>「Carvalho」</t>
   </si>
 </sst>
 </file>
@@ -2095,13 +2108,15 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2135,1688 +2150,1643 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>520</v>
+        <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
         <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>523</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>408</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>524</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>525</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>526</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
         <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>284</v>
+      </c>
+      <c r="F14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>528</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>529</v>
+        <v>422</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>530</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
         <v>434</v>
       </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>531</v>
-      </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>532</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>533</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>534</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>408</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" t="s">
-        <v>537</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>380</v>
       </c>
       <c r="B27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>381</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" t="s">
-        <v>539</v>
-      </c>
-      <c r="G27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" t="s">
-        <v>122</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>563</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
         <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" t="s">
-        <v>543</v>
-      </c>
-      <c r="G32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>461</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>424</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>408</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>408</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C39" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
         <v>408</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
         <v>408</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>294</v>
+      </c>
+      <c r="F41" t="s">
+        <v>449</v>
+      </c>
+      <c r="G41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>541</v>
+        <v>437</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
         <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="F43" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="H43" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>439</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
         <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>408</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>408</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>408</v>
       </c>
       <c r="C55" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
         <v>408</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>332</v>
+      </c>
+      <c r="F57" t="s">
+        <v>456</v>
+      </c>
+      <c r="G57" t="s">
+        <v>333</v>
+      </c>
+      <c r="H57" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" t="s">
-        <v>546</v>
-      </c>
-      <c r="G58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
         <v>408</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>401</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
         <v>409</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
         <v>408</v>
       </c>
       <c r="C64" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
         <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>547</v>
+        <v>428</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C66" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>274</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>275</v>
+      </c>
+      <c r="H66" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C67" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>408</v>
       </c>
       <c r="C68" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>231</v>
+      </c>
+      <c r="F69" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" t="s">
+        <v>232</v>
+      </c>
+      <c r="H69" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
         <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
         <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
-      </c>
-      <c r="F71" t="s">
-        <v>548</v>
-      </c>
-      <c r="G71" t="s">
-        <v>275</v>
-      </c>
-      <c r="H71" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
         <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
-        <v>549</v>
+        <v>441</v>
       </c>
       <c r="G72" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="H72" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="D73" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
         <v>408</v>
       </c>
       <c r="C74" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>444</v>
       </c>
       <c r="G74" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
-      </c>
-      <c r="F75" t="s">
-        <v>552</v>
-      </c>
-      <c r="G75" t="s">
-        <v>295</v>
-      </c>
-      <c r="H75" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C76" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="D76" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>442</v>
       </c>
       <c r="G76" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="H76" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C77" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
-      </c>
-      <c r="F77" t="s">
-        <v>554</v>
-      </c>
-      <c r="G77" t="s">
-        <v>305</v>
-      </c>
-      <c r="H77" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
         <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="F78" t="s">
-        <v>555</v>
+        <v>436</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="H78" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
         <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>556</v>
+        <v>438</v>
       </c>
       <c r="G79" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="H79" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C80" t="s">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>319</v>
-      </c>
-      <c r="F80" t="s">
-        <v>557</v>
-      </c>
-      <c r="G80" t="s">
-        <v>320</v>
-      </c>
-      <c r="H80" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3827,7 +3797,7 @@
         <v>408</v>
       </c>
       <c r="C81" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="D81" t="s">
         <v>323</v>
@@ -3836,7 +3806,7 @@
         <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="G81" t="s">
         <v>325</v>
@@ -3847,459 +3817,508 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>327</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
         <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>175</v>
+      </c>
+      <c r="F82" t="s">
+        <v>438</v>
+      </c>
+      <c r="G82" t="s">
+        <v>176</v>
+      </c>
+      <c r="H82" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>559</v>
+        <v>426</v>
       </c>
       <c r="G83" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="H83" t="s">
-        <v>334</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="F84" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="G84" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="D85" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
         <v>408</v>
       </c>
       <c r="C86" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="D86" t="s">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="B87" t="s">
         <v>409</v>
       </c>
       <c r="C87" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="E87" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C88" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="D88" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="E88" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="F88" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" t="s">
+        <v>290</v>
+      </c>
+      <c r="H88" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B89" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="E89" t="s">
-        <v>353</v>
+        <v>337</v>
+      </c>
+      <c r="F89" t="s">
+        <v>457</v>
+      </c>
+      <c r="G89" t="s">
+        <v>338</v>
+      </c>
+      <c r="H89" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
         <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="D90" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="E90" t="s">
-        <v>356</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
         <v>408</v>
       </c>
       <c r="C91" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C92" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D92" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E92" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C93" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E93" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C94" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="E94" t="s">
-        <v>368</v>
-      </c>
-      <c r="F94" t="s">
-        <v>561</v>
-      </c>
-      <c r="G94" t="s">
-        <v>369</v>
-      </c>
-      <c r="H94" t="s">
-        <v>370</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C95" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="D95" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="E95" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C96" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C97" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="D97" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="E97" t="s">
-        <v>379</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C98" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="D98" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
       <c r="E98" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="D99" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E99" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C100" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="D100" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
-        <v>388</v>
+        <v>314</v>
+      </c>
+      <c r="F100" t="s">
+        <v>453</v>
+      </c>
+      <c r="G100" t="s">
+        <v>315</v>
+      </c>
+      <c r="H100" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C101" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s">
-        <v>391</v>
+        <v>309</v>
+      </c>
+      <c r="F101" t="s">
+        <v>452</v>
+      </c>
+      <c r="G101" t="s">
+        <v>310</v>
+      </c>
+      <c r="H101" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="D102" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="F102" t="s">
-        <v>562</v>
+        <v>446</v>
       </c>
       <c r="G102" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="H102" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C103" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="D103" t="s">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>399</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>400</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C104" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
-        <v>401</v>
+        <v>168</v>
       </c>
       <c r="E104" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C105" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="D105" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="E105" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="F105" t="s">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="G105" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="H105" t="s">
-        <v>407</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H105">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4703E-9F58-4433-ACAD-F8A9DF04805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D665F61-C131-476B-9F20-1CF2C3BB8ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,9 +1640,6 @@
     <t>「Papel」</t>
   </si>
   <si>
-    <t>「Pau-Rosa」</t>
-  </si>
-  <si>
     <t>「Pele」</t>
   </si>
   <si>
@@ -1728,6 +1725,9 @@
   </si>
   <si>
     <t>「Carvalho」</t>
+  </si>
+  <si>
+    <t>「Roseira」</t>
   </si>
 </sst>
 </file>
@@ -2108,14 +2108,14 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
@@ -2216,7 +2216,7 @@
         <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
         <v>142</v>
@@ -2236,87 +2236,87 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
         <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>408</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2424,88 +2424,88 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>422</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>365</v>
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -2940,80 +2940,80 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>408</v>
       </c>
       <c r="C41" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G41" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
         <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
         <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E43" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H43" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,79 +3173,79 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" t="s">
-        <v>421</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
         <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
         <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,354 +3370,354 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>408</v>
       </c>
       <c r="C64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
         <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s">
-        <v>428</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>408</v>
       </c>
       <c r="C66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G66" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>276</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>274</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
-      </c>
-      <c r="F69" t="s">
-        <v>443</v>
-      </c>
-      <c r="G69" t="s">
-        <v>232</v>
-      </c>
-      <c r="H69" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>231</v>
+      </c>
+      <c r="F70" t="s">
+        <v>443</v>
+      </c>
+      <c r="G70" t="s">
+        <v>232</v>
+      </c>
+      <c r="H70" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
         <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F72" t="s">
-        <v>441</v>
-      </c>
-      <c r="G72" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
         <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="H73" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
         <v>408</v>
       </c>
       <c r="C74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="F74" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="E75" t="s">
-        <v>351</v>
+        <v>254</v>
+      </c>
+      <c r="F75" t="s">
+        <v>444</v>
+      </c>
+      <c r="G75" t="s">
+        <v>255</v>
+      </c>
+      <c r="H75" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
-      </c>
-      <c r="F76" t="s">
-        <v>442</v>
-      </c>
-      <c r="G76" t="s">
-        <v>189</v>
-      </c>
-      <c r="H76" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>188</v>
+      </c>
+      <c r="F77" t="s">
+        <v>442</v>
+      </c>
+      <c r="G77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D78" t="s">
         <v>119</v>
@@ -3754,7 +3754,7 @@
         <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D79" t="s">
         <v>129</v>
@@ -3780,7 +3780,7 @@
         <v>409</v>
       </c>
       <c r="C80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D80" t="s">
         <v>197</v>
@@ -3797,7 +3797,7 @@
         <v>408</v>
       </c>
       <c r="C81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D81" t="s">
         <v>323</v>
@@ -3823,7 +3823,7 @@
         <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D82" t="s">
         <v>174</v>
@@ -3849,7 +3849,7 @@
         <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D83" t="s">
         <v>64</v>
@@ -3875,7 +3875,7 @@
         <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D84" t="s">
         <v>404</v>
@@ -3901,7 +3901,7 @@
         <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D85" t="s">
         <v>94</v>
@@ -3927,7 +3927,7 @@
         <v>408</v>
       </c>
       <c r="C86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D86" t="s">
         <v>147</v>
@@ -3944,7 +3944,7 @@
         <v>409</v>
       </c>
       <c r="C87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D87" t="s">
         <v>372</v>
@@ -3955,54 +3955,54 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="B88" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C88" t="s">
         <v>545</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="E88" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G88" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="H88" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="E89" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="F89" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G89" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="H89" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4013,7 +4013,7 @@
         <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D90" t="s">
         <v>224</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="B91" t="s">
         <v>408</v>
@@ -4033,15 +4033,15 @@
         <v>548</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s">
         <v>408</v>
@@ -4050,15 +4050,15 @@
         <v>549</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E92" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="B93" t="s">
         <v>408</v>
@@ -4067,15 +4067,15 @@
         <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B94" t="s">
         <v>408</v>
@@ -4084,32 +4084,32 @@
         <v>551</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="E94" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
         <v>408</v>
       </c>
       <c r="C95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D95" t="s">
         <v>241</v>
       </c>
       <c r="E95" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
         <v>408</v>
@@ -4118,15 +4118,15 @@
         <v>552</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E96" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
         <v>408</v>
@@ -4135,15 +4135,15 @@
         <v>553</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
         <v>408</v>
@@ -4152,27 +4152,27 @@
         <v>554</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
         <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>345</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>408</v>
       </c>
       <c r="C100" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D100" t="s">
         <v>313</v>
@@ -4209,7 +4209,7 @@
         <v>408</v>
       </c>
       <c r="C101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
         <v>308</v>
@@ -4235,7 +4235,7 @@
         <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D102" t="s">
         <v>278</v>
@@ -4261,7 +4261,7 @@
         <v>408</v>
       </c>
       <c r="C103" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D103" t="s">
         <v>150</v>
@@ -4278,7 +4278,7 @@
         <v>408</v>
       </c>
       <c r="C104" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D104" t="s">
         <v>168</v>
@@ -4295,7 +4295,7 @@
         <v>408</v>
       </c>
       <c r="C105" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D105" t="s">
         <v>303</v>
